--- a/input/data/Global_Vendor_Data.xlsx
+++ b/input/data/Global_Vendor_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Branching\Mendix_BatchRun\input\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mendix WorkSpace\Mendix_BatchRun\input\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5520FB41-F382-4908-BD16-5DE44739C01B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE122F65-A4F9-4692-B411-84FA16FF299F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,9 +388,6 @@
     <t>97.Create_Vendor_with_Questionnaire_banklocalonly_Global2.xml</t>
   </si>
   <si>
-    <t>4.Change_vendor_global_&amp;_local_&amp;_Bank.xml</t>
-  </si>
-  <si>
     <t>5.Change _vendor_global _Only.xml</t>
   </si>
   <si>
@@ -542,6 +539,9 @@
   </si>
   <si>
     <t>35</t>
+  </si>
+  <si>
+    <t>4.Change_vendor_global__local__Bank.xml</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:BL81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,7 +1135,7 @@
   <sheetData>
     <row r="1" spans="1:64" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>3</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="4" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>108</v>
@@ -1905,7 +1905,7 @@
     </row>
     <row r="5" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>109</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="6" spans="1:64" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>110</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>111</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>112</v>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>113</v>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>114</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>115</v>
@@ -3427,7 +3427,7 @@
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>117</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>118</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>119</v>
@@ -3997,10 +3997,10 @@
     </row>
     <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>90</v>
@@ -4187,10 +4187,10 @@
     </row>
     <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>90</v>
@@ -4377,10 +4377,10 @@
     </row>
     <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>90</v>
@@ -4567,10 +4567,10 @@
     </row>
     <row r="19" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>90</v>
@@ -4757,10 +4757,10 @@
     </row>
     <row r="20" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>90</v>
@@ -4947,10 +4947,10 @@
     </row>
     <row r="21" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>90</v>
@@ -5137,10 +5137,10 @@
     </row>
     <row r="22" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>90</v>
@@ -5327,10 +5327,10 @@
     </row>
     <row r="23" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>90</v>
@@ -5517,10 +5517,10 @@
     </row>
     <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>90</v>
@@ -5707,10 +5707,10 @@
     </row>
     <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>90</v>
@@ -5897,10 +5897,10 @@
     </row>
     <row r="26" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>90</v>
@@ -6087,10 +6087,10 @@
     </row>
     <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>90</v>
@@ -6277,10 +6277,10 @@
     </row>
     <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>90</v>
@@ -6467,10 +6467,10 @@
     </row>
     <row r="29" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>90</v>
@@ -6657,10 +6657,10 @@
     </row>
     <row r="30" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>90</v>
@@ -6847,10 +6847,10 @@
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>90</v>
@@ -7037,10 +7037,10 @@
     </row>
     <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>90</v>
@@ -7227,10 +7227,10 @@
     </row>
     <row r="33" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>90</v>
@@ -7417,10 +7417,10 @@
     </row>
     <row r="34" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>90</v>
@@ -7607,10 +7607,10 @@
     </row>
     <row r="35" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>90</v>
@@ -7797,10 +7797,10 @@
     </row>
     <row r="36" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>90</v>
